--- a/medicine/Enfance/Elvire_Murail/Elvire_Murail.xlsx
+++ b/medicine/Enfance/Elvire_Murail/Elvire_Murail.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Elvire Murail, née le 7 juin 1958 au Havre, est une écrivaine française, principalement auteur de livres pour la jeunesse sous le nom de plume de Moka. Fille du poète Gérard Murail, elle est la sœur cadette des écrivains Marie-Aude et Lorris Murail, et du compositeur Tristan Murail.
 </t>
@@ -511,12 +523,14 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Diplômée de l'université de Cambridge, elle commence sa carrière littéraire par des romans pour adultes. Elle connait le succès avec son premier livre, Escalier C, qui est porté au cinéma par Jean-Charles Tacchella en 1984.
 Après avoir signé quatre romans pour adultes, elle entre en littérature de jeunesse en 1989 sous le pseudonyme de Moka.
 Elle signe de ce pseudonyme plus de soixante-dix romans pour la jeunesse, édités principalement à L'École des loisirs dans les collections Mouche, Neuf et Médium. Ces romans explorent une veine policière ou une veine fantastique.
-Depuis 1996, elle est engagée dans la défense d'une littérature jeunesse de qualité, au sein de l'association de la Charte des auteurs et des illustrateurs jeunesse, dont elle fut trésorière de 1999 à 2007. Elle fut également Commissaire permanent chargée des affaires générales de la Sofia (Société française des intérêts des auteurs de l’écrit) jusqu'en 2007. Elle est sociétaire de la SGDL et de la SACD[1].
+Depuis 1996, elle est engagée dans la défense d'une littérature jeunesse de qualité, au sein de l'association de la Charte des auteurs et des illustrateurs jeunesse, dont elle fut trésorière de 1999 à 2007. Elle fut également Commissaire permanent chargée des affaires générales de la Sofia (Société française des intérêts des auteurs de l’écrit) jusqu'en 2007. Elle est sociétaire de la SGDL et de la SACD.
 Elle travaille également comme scénariste et dialoguiste pour le cinéma et la télévision.
 </t>
         </is>
@@ -548,13 +562,52 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Sous son nom
-Escalier C, Éditions Sylvie Messinger, 1983.
+          <t>Sous son nom</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Escalier C, Éditions Sylvie Messinger, 1983.
 La Plume de perroquet, 1984.
 Les Mannequins d'osier, 1987.
-Bingo !, 1990.
-Sous le pseudonyme de Moka
-La Lanterne bleue, 1991, illustrations d'Yvan Pommaux
+Bingo !, 1990.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Elvire_Murail</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Elvire_Murail</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvres littéraires</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Sous le pseudonyme de Moka</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>La Lanterne bleue, 1991, illustrations d'Yvan Pommaux
 Ailleurs (trilogie)
 Ailleurs, rien n'est tout blanc ou tout noir, 1991
 Le puits d'amour, 1992
@@ -643,70 +696,111 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>Elvire_Murail</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>Portail:Enfance/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Elvire_Murail</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>Cinéma et télévision</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Cinéma
-Escalier C réalisé par Jean-Charles Tacchella, 1985 (co-scénariste et dialoguiste)
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Cinéma</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Escalier C réalisé par Jean-Charles Tacchella, 1985 (co-scénariste et dialoguiste)
 La Maison de Jeanne réalisé par Magali Clément, 1988 (scénariste consultante)
 La Septième Dimension, réalisé par six co-réalisateurs, 1988 (co-scénariste et scénariste consultante)
 Les Mannequins d'osier réalisé par Francis de Gueltzl, 1989 (co-scénariste et dialoguiste)
-Une journée pour rien de Serge Halsdorf, 1993 (scénariste et dialoguiste)
-Télévision
-Chambre froide réalisé par Sylvain Madigan, 1993 (adaptation et dialogues)
+Une journée pour rien de Serge Halsdorf, 1993 (scénariste et dialoguiste)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Elvire_Murail</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Elvire_Murail</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Cinéma et télévision</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Télévision</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Chambre froide réalisé par Sylvain Madigan, 1993 (adaptation et dialogues)
 La Vie en face réalisé par Laurent Dussaux, 1996 (scénariste-dialoguiste)
 Un étrange héritage réalisé par Laurent Dussaux, 1997 (scénariste-dialoguiste consultante)</t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>Elvire_Murail</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>Portail:Enfance/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Elvire_Murail</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>Récompenses</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Prix du premier roman pour Escalier C, 1983
 Prix George Sand pour Escalier C, 1984
